--- a/OutputData/Nipah/Nipah_Combined_12_12.xlsx
+++ b/OutputData/Nipah/Nipah_Combined_12_12.xlsx
@@ -595,7 +595,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>NA (14)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>NA (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>NA (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>N, P, V, W, C, M, F, G, L (1), N, P/V/C, P/V/C, P/V/C, M, F, G, L (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>N, P, V, W, C, M, F, G, L (1), N, P/V/C, P/V/C, P/V/C, M, F, G, L (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>N, P, V, W, C, M, F, G, L (1), N, P/V/C, P/V/C, P/V/C, M, F, G, L (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>N, P, V, W, C, M, F, G, L (1), N, P/V/C, P/V/C, P/V/C, M, F, G, L (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>NUCLEOCAPSID (7)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>NUCLEOCAPSID (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>NUCLEOCAPSID (5)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -1857,7 +1857,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>N, P, V, W, C, M, F, G, L (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>NA (4)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>NA (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2124,7 +2124,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>N, P, V, W, C, M, F, G, L (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>NUCLEOPROTEIN (6)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2302,7 +2302,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>N, P/V/C, M, F, G, L (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2391,7 +2391,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>NA (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>N (3)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>N, P/V/W/C, P/V/W/C, P/V/W/C, P/V/W/C, M, F, G, L (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>N, P, V, W, C, M, F, G, L (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2929,7 +2929,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>N (8), L (5), N, P/V/W/C, P/V/W/C, P/V/W/C, P/V/W/C, M, F, G, L (3), F (2), P (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>N, P/V/M/C, P/V/M/C, P/V/M/C, P/V/M/C, M, F, G, L (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>N, P, M, F, G, L (3)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>N, P, M, F, G, L (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -3297,7 +3297,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>NUCLEOPROTEIN, PHOSPHOPROTEIN, MATRIX, FUSION, GLYCOPROTEIN, POLYMERASE (9), NUCLEOPROTEIN, PHOSPHOPROTEIN, MATRIX, FUSION, GLYCOPROTEIN (1), NUCLEOPROTEIN, MATRIX, FUSION, GLYCOPROTEIN, POLYMERASE (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>N (3), N, P/V/W/C, M, F, G, L (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -3487,7 +3487,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>L (1), G (1), F (1), M (1), P/V/W/C, P/V/W/C (1), N (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>N (23), N, P (3)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -3760,7 +3760,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3851,7 +3851,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>NA (5)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -3946,7 +3946,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>N, P, P, P, M, F, G, L (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -4037,7 +4037,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>N, P, M, F, G, L (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -4132,7 +4132,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>N, P/V/C, P/V/C, P/V/C, M, F, G (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>N (3)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -4409,7 +4409,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>NUCLEOCAPSID (19)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>NUCLEOPROTEIN, PHOSPHOPROTEIN, MATRIX, FUSION, ATTACHMENT, POLYMERASE (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -4599,7 +4599,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>N, P/V/W/C, P/V/W/C, P/V/W/C, P/V/W/C, M, F, G, L (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -4694,7 +4694,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>GLYCOPROTEIN (1), FUSION (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -4781,7 +4781,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>N, P, V, W, C, M, F, G, L (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -4872,7 +4872,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>NA (4)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -4967,7 +4967,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>N (5), N, P/V/W/C, P/V/W/C, P/V/W/C, P/V/W/C, M, F, G, L (3)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -5062,7 +5062,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>NUCLEOCAPSID (30)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -5153,7 +5153,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>N, P/V/W/C, P/V/W/C, P/V/W/C, P/V/W/C, M, F, G, L (21), N, P/V/W/C, M, F, G, L (3)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -5248,7 +5248,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>GLYCOPROTEIN (1), NUCLEOPROTEIN (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -5339,7 +5339,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>M (5)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -5430,7 +5430,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>L (1), P (1), G (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -5521,7 +5521,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>N (39)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -5616,7 +5616,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>NUCLEOCAPSID (21), N, P/V/W/C, P/V/W/C, P/V/W/C, P/V/W/C, M, F, G, L (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -5711,7 +5711,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>N (9)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -5806,7 +5806,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>NUCLEOCAPSID (11)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -5897,7 +5897,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>N (8)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>N (8)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -6079,7 +6079,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>N, P/V/W/C, P/V/W/C, P/V/W/C, P/V/W/C, M, F, G, L (34)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -6170,7 +6170,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>N (6), N, P/V/M/C, P/V/M/C, P/V/M/C, P/V/M/C, M, F, G, L (6), P/V/M/C (4), L (3), F (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>N (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -6348,7 +6348,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>N, P/V/C, P/V/C, P/V/C, P/V/C, M, F, G, L (10), N, P/V/M/C, P/V/M/C, P/V/M/C, P/V/M/C, M, F, G, L (6), N (5), P/V/M/C (4), L (3), F (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>N, P/V/W/C, P/V/W/C, P/V/W/C, P/V/W/C, M, F, G, L (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -6538,7 +6538,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>NA (1), P (1), G (1), N (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
